--- a/results/case2/break_even_data_case2.xlsx
+++ b/results/case2/break_even_data_case2.xlsx
@@ -1202,7 +1202,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1.007562483728695</v>
+        <v>0.9342346137825329</v>
       </c>
       <c r="C2">
         <v>0.01623028490170327</v>
@@ -1220,7 +1220,7 @@
         <v>0.4215931858003368</v>
       </c>
       <c r="H2">
-        <v>-0.2302791488195928</v>
+        <v>-0.2302791499501395</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1228,7 +1228,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.221603318755472</v>
+        <v>0.205170558449999</v>
       </c>
       <c r="C3">
         <v>0.01623028490170327</v>
@@ -1237,7 +1237,7 @@
         <v>0.1121101105101208</v>
       </c>
       <c r="E3">
-        <v>0.100302607737641</v>
+        <v>0.1003026099121762</v>
       </c>
       <c r="F3">
         <v>0.04769806851629699</v>
@@ -1246,7 +1246,7 @@
         <v>0.01443658611348089</v>
       </c>
       <c r="H3">
-        <v>0.005022842365667366</v>
+        <v>0.005022842318885456</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1290,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1.085858420482531</v>
+        <v>1.018665785611905</v>
       </c>
       <c r="C2">
         <v>0.003338416857872192</v>
@@ -1316,7 +1316,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.07991410943131139</v>
+        <v>0.06502886180820124</v>
       </c>
       <c r="C3">
         <v>0.003338416857872192</v>
@@ -1331,7 +1331,7 @@
         <v>0.01099250691244686</v>
       </c>
       <c r="G3">
-        <v>0.01454981971606397</v>
+        <v>0.01454981971606398</v>
       </c>
       <c r="H3">
         <v>-0.0001139290863783526</v>
@@ -1378,10 +1378,10 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.9894603203063571</v>
+        <v>0.9160856740404866</v>
       </c>
       <c r="C2">
-        <v>0.01562895856438135</v>
+        <v>0.01562895856853696</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.421461794696004</v>
+        <v>0.421461794631331</v>
       </c>
       <c r="H2">
-        <v>-0.228572814893216</v>
+        <v>-0.2285728146344918</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1404,25 +1404,25 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.2157639265162113</v>
+        <v>0.1993247365567034</v>
       </c>
       <c r="C3">
-        <v>0.01562895856438135</v>
+        <v>0.01562895856853696</v>
       </c>
       <c r="D3">
-        <v>0.1083401924441563</v>
+        <v>0.1083401922196647</v>
       </c>
       <c r="E3">
-        <v>0.09656341413087373</v>
+        <v>0.09656341418422697</v>
       </c>
       <c r="F3">
-        <v>0.04667465871375956</v>
+        <v>0.04667465884809979</v>
       </c>
       <c r="G3">
-        <v>0.01443406095415931</v>
+        <v>0.01443406095275659</v>
       </c>
       <c r="H3">
-        <v>0.005047328277706624</v>
+        <v>0.00504732829175053</v>
       </c>
     </row>
   </sheetData>
